--- a/assignment1/results/dt_tfidf.xlsx
+++ b/assignment1/results/dt_tfidf.xlsx
@@ -555,61 +555,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.74</v>
       </c>
       <c r="E2" t="n">
-        <v>0.75</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6116504854368932</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6737967914438502</v>
+        <v>0.8151658767772511</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.6704545454545454</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6781609195402298</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5764705882352941</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5212765957446809</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5474860335195532</v>
+        <v>0.7589743589743589</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3025210084033613</v>
+        <v>0.5981308411214953</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3257918552036199</v>
+        <v>0.6124401913875597</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.68</v>
+        <v>0.8691588785046729</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4513274336283186</v>
+        <v>0.8230088495575221</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5425531914893618</v>
+        <v>0.8454545454545455</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3473684210526316</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3350253807106599</v>
+        <v>0.7120418848167538</v>
       </c>
     </row>
     <row r="3">
@@ -627,61 +627,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4716666666666667</v>
+        <v>0.73</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5825242718446602</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6703910614525139</v>
+        <v>0.8075117370892019</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2738853503184713</v>
+        <v>0.6781609195402298</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3539094650205761</v>
+        <v>0.6820809248554913</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5212765957446809</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5730994152046783</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2989690721649484</v>
+        <v>0.5980392156862745</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2843137254901961</v>
+        <v>0.5980392156862745</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2914572864321608</v>
+        <v>0.5980392156862745</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.8725490196078431</v>
       </c>
       <c r="R3" t="n">
-        <v>0.504424778761062</v>
+        <v>0.7876106194690266</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5615763546798028</v>
+        <v>0.8279069767441859</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4368932038834951</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.6568627450980392</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.6536585365853659</v>
       </c>
     </row>
     <row r="4">
@@ -699,61 +699,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4883333333333333</v>
+        <v>0.7716666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.75</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5825242718446602</v>
+        <v>0.8737864077669902</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.8411214953271028</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3266666666666667</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5697674418604651</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4152542372881356</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6235294117647059</v>
+        <v>0.8111111111111111</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5638297872340425</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5921787709497206</v>
+        <v>0.7934782608695652</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.5772357723577236</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.696078431372549</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3689320388349514</v>
+        <v>0.6311111111111111</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6385542168674698</v>
+        <v>0.91</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4690265486725664</v>
+        <v>0.8053097345132744</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5408163265306122</v>
+        <v>0.8544600938967136</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.392156862745098</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4</v>
+        <v>0.7291666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -771,61 +771,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.485</v>
+        <v>0.755</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6116504854368932</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6631578947368421</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.7875</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5930232558139535</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4493392070484581</v>
+        <v>0.7590361445783131</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5764705882352941</v>
+        <v>0.76</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5212765957446809</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5474860335195532</v>
+        <v>0.7835051546391754</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3211009174311927</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3431372549019608</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3317535545023697</v>
+        <v>0.6095238095238096</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.7964601769911505</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8256880733944955</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3897435897435897</v>
+        <v>0.7246376811594202</v>
       </c>
     </row>
   </sheetData>
